--- a/backlog_ (1).xlsx
+++ b/backlog_ (1).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sub_user_c\Descargas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="8490"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>BACKLOG</t>
   </si>
@@ -285,11 +280,20 @@
   <si>
     <t>16</t>
   </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NOOK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,22 +344,16 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -380,11 +378,482 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -408,13 +877,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B4:E26" totalsRowShown="0">
-  <autoFilter ref="B4:E26"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Nº" dataDxfId="2"/>
-    <tableColumn id="2" name="Producto" dataDxfId="1"/>
-    <tableColumn id="3" name="Tabajo pendiente del producto" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B4:F26" totalsRowShown="0">
+  <autoFilter ref="B4:F26"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Nº" dataDxfId="41"/>
+    <tableColumn id="2" name="Producto" dataDxfId="40"/>
+    <tableColumn id="3" name="Tabajo pendiente del producto" dataDxfId="39"/>
     <tableColumn id="4" name="Asignado"/>
+    <tableColumn id="5" name="Estatus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -463,7 +933,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,7 +968,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E50"/>
+  <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,19 +1190,20 @@
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="60.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -745,8 +1216,11 @@
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -757,8 +1231,11 @@
         <v>26</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -771,8 +1248,11 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -785,8 +1265,11 @@
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -799,8 +1282,11 @@
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -813,8 +1299,11 @@
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -827,8 +1316,11 @@
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -841,8 +1333,11 @@
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -855,8 +1350,11 @@
       <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -869,8 +1367,11 @@
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -883,8 +1384,11 @@
       <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -897,8 +1401,11 @@
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="180" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -911,8 +1418,11 @@
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
@@ -925,8 +1435,11 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
@@ -939,8 +1452,11 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
@@ -953,8 +1469,11 @@
       <c r="E19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -967,63 +1486,66 @@
       <c r="E20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
@@ -1120,8 +1642,16 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
+  <conditionalFormatting sqref="F5:F26">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+      <formula>"NOOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
